--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H2">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2749448569966667</v>
+        <v>0.43161179695</v>
       </c>
       <c r="R2">
-        <v>2.47450371297</v>
+        <v>3.88450617255</v>
       </c>
       <c r="S2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="T2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>23.411895</v>
       </c>
       <c r="I3">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J3">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>4.382355565575</v>
       </c>
       <c r="S3">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="T3">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H4">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I4">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J4">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3309756085933333</v>
+        <v>0.4012420706166667</v>
       </c>
       <c r="R4">
-        <v>2.97878047734</v>
+        <v>3.61117863555</v>
       </c>
       <c r="S4">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="T4">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H5">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I5">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J5">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2390097670416667</v>
+        <v>0.2585799379933333</v>
       </c>
       <c r="R5">
-        <v>2.151087903375</v>
+        <v>2.32721944194</v>
       </c>
       <c r="S5">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="T5">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H6">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I6">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J6">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3435005313133333</v>
+        <v>0.2705294540233334</v>
       </c>
       <c r="R6">
-        <v>3.091504781819999</v>
+        <v>2.43476508621</v>
       </c>
       <c r="S6">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="T6">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
     </row>
   </sheetData>
